--- a/dinas/public/files/template/inventory/kibc.xlsx
+++ b/dinas/public/files/template/inventory/kibc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\bogor\puskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) C</t>
   </si>
@@ -182,17 +179,35 @@
     <t>Tanggal Export</t>
   </si>
   <si>
-    <t xml:space="preserve">: </t>
-  </si>
-  <si>
     <t>[b.tanggal_export]</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Kab./Kota</t>
+  </si>
+  <si>
+    <t>Bidang</t>
+  </si>
+  <si>
+    <t>Unit Organisasi</t>
+  </si>
+  <si>
+    <t>Sub Unit Organisasi</t>
+  </si>
+  <si>
+    <t>UPB</t>
+  </si>
+  <si>
+    <t>No. Kode Lokasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +240,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -240,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -313,15 +341,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -377,18 +396,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,83 +439,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,117 +556,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KIB A"/>
-      <sheetName val="KIB D"/>
-      <sheetName val="KIB C"/>
-      <sheetName val="EXTRACOMTABLE"/>
-      <sheetName val="KURANG BAIK"/>
-      <sheetName val="TIDAK MASUK KIB"/>
-      <sheetName val="B - MTR"/>
-      <sheetName val="TIDAK ADA FISIK"/>
-      <sheetName val="KIB LAMA"/>
-      <sheetName val="B - RB"/>
-      <sheetName val="B - UKS I"/>
-      <sheetName val="B - UKS II"/>
-      <sheetName val="B - UKUT"/>
-      <sheetName val="B - P.B"/>
-      <sheetName val="B - PAL"/>
-      <sheetName val="B - KM"/>
-      <sheetName val="Rekap KIB B"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Alkes"/>
-      <sheetName val="ALKES RB"/>
-      <sheetName val="AL. UKS I"/>
-      <sheetName val="AL. UKS II"/>
-      <sheetName val="AL. UKUT"/>
-      <sheetName val="AL. PB"/>
-      <sheetName val="AL. PAL"/>
-      <sheetName val="AL. KM"/>
-      <sheetName val="tambahan"/>
-      <sheetName val="KIB E"/>
-      <sheetName val="KIB F"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Provinsi</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Kab./Kota</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Bidang</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Sub Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>U P B</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v xml:space="preserve">NO. KODE LOKASI </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>GEDUNG DAN BANGUNAN</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,17 +821,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P18"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
@@ -895,191 +847,208 @@
     <col min="16" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="str">
-        <f>'[1]KIB A'!B4</f>
-        <v>Kab./Kota</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="str">
-        <f>'[1]KIB A'!B5</f>
-        <v>Bidang</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="str">
-        <f>'[1]KIB A'!B6</f>
-        <v>Unit Organisasi</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="str">
-        <f>'[1]KIB A'!B7</f>
-        <v>Sub Unit Organisasi</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="str">
-        <f>'[1]KIB A'!B8</f>
-        <v>U P B</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="str">
-        <f>'[1]KIB A'!B9</f>
-        <v xml:space="preserve">NO. KODE LOKASI </v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <f>'[1]KIB A'!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1089,238 +1058,225 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="28" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J15" s="6">
         <v>9</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M15" s="6">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="C17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B13:D13"/>
+  <mergeCells count="19">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
